--- a/Data Excel/Studi Kasus 2.xlsx
+++ b/Data Excel/Studi Kasus 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="results-20220701-140007" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="results-20220701-154827" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,156 +11,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="31">
   <si>
     <t>state</t>
   </si>
   <si>
+    <t>recovered</t>
+  </si>
+  <si>
     <t>count</t>
   </si>
   <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli and Daman and Diu</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Dadar Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
     <t>Madhya Pradesh</t>
   </si>
   <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Telengana</t>
+  </si>
+  <si>
     <t>Punjab</t>
   </si>
   <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>West Bengal</t>
-  </si>
-  <si>
-    <t>Odisha</t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Manipur</t>
+    <t>Chhattisgarh</t>
   </si>
   <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t>Uttarakhand</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Puducherry</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>Ladakh</t>
-  </si>
-  <si>
     <t>Himachal Pradesh</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Andaman and Nicobar Islands</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Assam</t>
-  </si>
-  <si>
-    <t>Jharkhand</t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>Meghalaya</t>
-  </si>
-  <si>
-    <t>Nagaland</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>Dadra and Nagar Haveli and Daman and Diu</t>
-  </si>
-  <si>
-    <t>Lakshadweep</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Telengana</t>
-  </si>
-  <si>
-    <t>Dadar Nagar Haveli</t>
-  </si>
-  <si>
-    <t>Nagaland#</t>
-  </si>
-  <si>
-    <t>Haryana***</t>
-  </si>
-  <si>
-    <t>Telangana***</t>
-  </si>
-  <si>
-    <t>Karanataka</t>
-  </si>
-  <si>
-    <t>Himanchal Pradesh</t>
-  </si>
-  <si>
-    <t>Cases being reassigned to states</t>
-  </si>
-  <si>
-    <t>Maharashtra****</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh*****</t>
-  </si>
-  <si>
-    <t>Daman &amp; Diu</t>
-  </si>
-  <si>
-    <t>Jharkhand#</t>
   </si>
 </sst>
 </file>
@@ -424,389 +367,1108 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>827.0</v>
+        <v>11350.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>827.0</v>
+        <v>11437.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>93.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>827.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>51.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>827.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>827.0</v>
+        <v>33.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>827.0</v>
+        <v>10314.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>827.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>827.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>827.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>33.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>827.0</v>
+        <v>99964.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1">
-        <v>827.0</v>
+        <v>10678.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>27.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>827.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>827.0</v>
+        <v>10666.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>827.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>22.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>827.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>21.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>827.0</v>
+        <v>163812.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>827.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>19.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>827.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>827.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>827.0</v>
+        <v>64199.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
-        <v>826.0</v>
+        <v>9905.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>18.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
-        <v>826.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>18.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1">
-        <v>826.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>17.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>826.0</v>
+        <v>10679.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>17.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
-        <v>826.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>17.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1">
-        <v>826.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>17.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1">
-        <v>821.0</v>
+        <v>99956.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>16.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>820.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>16.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1">
-        <v>819.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>15.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1">
-        <v>815.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
-        <v>808.0</v>
+        <v>3396.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>770.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
-        <v>768.0</v>
+        <v>34728.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>15.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B35" s="1">
-        <v>749.0</v>
+        <v>38713.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>15.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1">
-        <v>528.0</v>
+        <v>34735.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>14.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>476.0</v>
+        <v>11436.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>14.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>350.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>14.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1">
-        <v>37.0</v>
+        <v>43.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>14.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1">
-        <v>5.0</v>
+        <v>34736.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>14.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
-        <v>1.0</v>
+        <v>16780.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>13.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
-        <v>1.0</v>
+        <v>16785.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>13.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
-        <v>1.0</v>
+        <v>9904.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>12.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>12.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>12.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>12.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1">
-        <v>1.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>12.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B48" s="1">
         <v>1.0</v>
       </c>
+      <c r="C48" s="1">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1">
+        <v>135110.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1">
+        <v>66.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1">
+        <v>39521.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1">
         <v>1.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <v>64188.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="1">
+        <v>716237.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4932.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1">
+        <v>94850.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1">
+        <v>9910.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1">
+        <v>92233.0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1">
+        <v>163815.0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1">
+        <v>716210.0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1">
+        <v>99957.0</v>
+      </c>
+      <c r="C69" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>99951.0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="1">
+        <v>716212.0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9906.0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
+        <v>10355.0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
+        <v>10310.0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="1">
+        <v>11348.0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3400.0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>64208.0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>16783.0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="1">
+        <v>716246.0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4952.0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="1">
+        <v>10365.0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1">
+        <v>7419.0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>135121.0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>10659.0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B96" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>135124.0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="1">
+        <v>99967.0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10687.0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
